--- a/Controle/Base Odilon Atualizada/PlanoAceleracaoErro.xlsx
+++ b/Controle/Base Odilon Atualizada/PlanoAceleracaoErro.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a78252d93c752efd/Leizer/Prj em andamento/Com financeiro/2023 - BCS-MPA - (FAPEX 230003)/Matlab/mpc_bcss_simulink/Controle/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a78252d93c752efd/Leizer/Prj em andamento/Com financeiro/2023 - BCS-MPA - (FAPEX 230003)/Matlab/mpc_bcss_simulink/Controle/Base Odilon Atualizada/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="197" documentId="8_{5C945471-0501-4982-914B-77E6D81DDCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B95AA29-8C81-41B6-A9FD-368682E9F7D5}"/>
+  <xr:revisionPtr revIDLastSave="200" documentId="8_{5C945471-0501-4982-914B-77E6D81DDCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E9DABD3-F483-466E-81BB-7B765C898558}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{BBE28F0B-50E5-4C27-A977-1D4596D3A126}"/>
   </bookViews>
@@ -1607,7 +1607,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1683,7 +1683,7 @@
         <v>43</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C17" si="0">C4</f>
+        <f t="shared" ref="C5:C9" si="0">C4</f>
         <v>10</v>
       </c>
       <c r="D5" s="5">
@@ -1703,7 +1703,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="5">
-        <f t="shared" ref="D6:D19" si="1">D5+$D$4</f>
+        <f t="shared" ref="D6:D18" si="1">D5+$D$4</f>
         <v>1350</v>
       </c>
     </row>
@@ -1909,8 +1909,8 @@
         <v>32</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="1"/>
-        <v>7200</v>
+        <f>D18+$D$4+(2*3600)</f>
+        <v>14400</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
